--- a/Resultados/Mercado mundial - Bananos.xlsx
+++ b/Resultados/Mercado mundial - Bananos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="China, mainland" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Nigeria" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Ecuador" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nigeria" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ecuador" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,10 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -408,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -434,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -490,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -516,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -572,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -598,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -654,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -680,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -736,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -762,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -818,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -844,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -900,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -926,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Indonesia'!$B$12:$B$73</f>
+              <f>'Indonesia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Indonesia'!$C$12:$C$73</f>
+              <f>'Indonesia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -982,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1008,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Nigeria'!$B$12:$B$73</f>
+              <f>'Nigeria'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Nigeria'!$C$12:$C$73</f>
+              <f>'Nigeria'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1064,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1090,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ecuador'!$B$12:$B$73</f>
+              <f>'Ecuador'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ecuador'!$C$12:$C$73</f>
+              <f>'Ecuador'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1146,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1164,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1204,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1216,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1234,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1274,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1286,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1304,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1344,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1356,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1374,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1414,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1426,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1441,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1463,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1478,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1493,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1515,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1530,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1545,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1567,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1582,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1597,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1619,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1634,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1649,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1671,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2012,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2061,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2140,10 +2138,10 @@
         <v>5973253</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>23.3169</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>139277894.61</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>23.3169</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>22511771.42</v>
@@ -2162,10 +2160,10 @@
         <v>5917437</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>22.8993</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>135505239.34</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>22.8993</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>22586293.41</v>
@@ -2184,10 +2182,10 @@
         <v>5822381</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>22.7282</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>132332032.54</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>22.7282</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>23033604.87</v>
@@ -2206,10 +2204,10 @@
         <v>5597221</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.5918</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>126451453.19</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.5918</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>23085385.95</v>
@@ -2228,10 +2226,10 @@
         <v>5033416</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>23.3127</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>117342463.75</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>23.3127</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>23158798.01</v>
@@ -2250,10 +2248,10 @@
         <v>5014951</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>23.3638</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>117168226.31</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>23.3638</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>22552605.97</v>
@@ -2272,10 +2270,10 @@
         <v>5073555</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>22.3044</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>113162382.16</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>22.3044</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>22193503.65</v>
@@ -2294,10 +2292,10 @@
         <v>5199281</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>21.3568</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>111039786.82</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>21.3568</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>20341968.63</v>
@@ -2316,10 +2314,10 @@
         <v>5350617</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>21.2796</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>113858794.02</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>21.2796</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>20380314.93</v>
@@ -2338,10 +2336,10 @@
         <v>5250873</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>21.3277</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>111989038.2</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>21.3277</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>20091471.89</v>
@@ -2360,10 +2358,10 @@
         <v>5427385</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>20.5884</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>111741302.43</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>20.5884</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19661012</v>
@@ -2382,10 +2380,10 @@
         <v>5390127</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>20.1575</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>108651362.5</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>20.1575</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>18309599</v>
@@ -2404,10 +2402,10 @@
         <v>5592813</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>19.6689</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>110004623.93</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>19.6689</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>18716605</v>
@@ -2426,10 +2424,10 @@
         <v>5500920</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>19.8944</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>109437280.41</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>19.8944</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>17925703</v>
@@ -2448,10 +2446,10 @@
         <v>5146139</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>19.7931</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>101857799.02</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>19.7931</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>17228713</v>
@@ -2470,10 +2468,10 @@
         <v>5001459</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>97628379.43000001</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>19.52</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>17614525</v>
@@ -2492,10 +2490,10 @@
         <v>4892946</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>19.063</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>93274419.59999999</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>19.063</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>17220702</v>
@@ -2514,10 +2512,10 @@
         <v>4898334</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>17.9074</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>87716340.23999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>17.9074</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>16410558</v>
@@ -2536,10 +2534,10 @@
         <v>4641090</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>17.8309</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>82754814.28</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>17.8309</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>15422868</v>
@@ -2558,10 +2556,10 @@
         <v>4643601</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>16.8953</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>78454832.34</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>16.8953</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>15080553</v>
@@ -2580,10 +2578,10 @@
         <v>4614171</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>16.0482</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>74049202.56999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>16.0482</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>14695590</v>
@@ -2602,10 +2600,10 @@
         <v>4481831</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>16.044</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>71906611.61</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>16.044</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>13900112</v>
@@ -2624,10 +2622,10 @@
         <v>4394968</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>15.7194</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>69086062.25</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>15.7194</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>13635182.38</v>
@@ -2646,10 +2644,10 @@
         <v>4411226</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>15.023</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>66270002.44</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>15.023</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>14433001.17</v>
@@ -2668,10 +2666,10 @@
         <v>4293189</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>16.0912</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>69082633.67</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>16.0912</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>14037820.31</v>
@@ -2690,10 +2688,10 @@
         <v>4236789</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15.0959</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>63958071.55</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15.0959</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>13266028.68</v>
@@ -2712,10 +2710,10 @@
         <v>4112715</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>15.0145</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>61750313.56</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>15.0145</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>13563510.96</v>
@@ -2734,10 +2732,10 @@
         <v>3802238</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>14.9953</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>57015594.66</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>14.9953</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>13593262</v>
@@ -2756,10 +2754,10 @@
         <v>3723159</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>15.5941</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>58059329.21</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>15.5941</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>12874131.18</v>
@@ -2778,10 +2776,10 @@
         <v>3665941</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>15.6619</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>57415566.97</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>15.6619</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>12382189</v>
@@ -2800,10 +2798,10 @@
         <v>3837980</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>14.5123</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>55697729.1</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>14.5123</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>11176582</v>
@@ -2822,10 +2820,10 @@
         <v>3992921</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>13.7861</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>55047010.18</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>13.7861</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>10664879</v>
@@ -2844,10 +2842,10 @@
         <v>3752616</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>13.4895</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>50620730.52</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>13.4895</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>9994708</v>
@@ -2866,10 +2864,10 @@
         <v>3724755</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>13.4065</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>49936000.14</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>13.4065</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>8878903</v>
@@ -2888,10 +2886,10 @@
         <v>3689911</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>12.9637</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>47834767</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>12.9637</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>8100760</v>
@@ -2910,10 +2908,10 @@
         <v>3806729</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>12.4109</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>47244990</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>12.4109</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>7515273</v>
@@ -2932,10 +2930,10 @@
         <v>3427991</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13.6291</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>46720499</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13.6291</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>7418395</v>
@@ -2954,10 +2952,10 @@
         <v>3302484</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>13.6544</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>45093345</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>13.6544</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>7148987</v>
@@ -2976,10 +2974,10 @@
         <v>3221893</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>13.1956</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>42514787</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>13.1956</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>7012137</v>
@@ -2998,10 +2996,10 @@
         <v>3144249</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>13.1591</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>41375343</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>13.1591</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>6519588</v>
@@ -3020,10 +3018,10 @@
         <v>3074115</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>12.7674</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>39248565</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>12.7674</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>6060076</v>
@@ -3042,10 +3040,10 @@
         <v>3117031</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>13.0065</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>40541722</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>13.0065</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>6745939</v>
@@ -3064,10 +3062,10 @@
         <v>3011219</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>13.2392</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>39866060</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>13.2392</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>6723484</v>
@@ -3086,10 +3084,10 @@
         <v>2998521</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13.0391</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>39097925</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13.0391</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>6677303</v>
@@ -3108,10 +3106,10 @@
         <v>2902568</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>12.9369</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>37550260</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>12.9369</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>7004118</v>
@@ -3130,10 +3128,10 @@
         <v>2839689</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>12.8674</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>36539279</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>12.8674</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>6826344</v>
@@ -3152,10 +3150,10 @@
         <v>2886776</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12.5017</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>36089738</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12.5017</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>6535780</v>
@@ -3174,10 +3172,10 @@
         <v>2842681</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>12.0778</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>34333324</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>12.0778</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>6319566</v>
@@ -3196,10 +3194,10 @@
         <v>2858004</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11.5953</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>33139551</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11.5953</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>6278475</v>
@@ -3218,10 +3216,10 @@
         <v>2920158</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.476</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>33511739</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.476</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>6294464</v>
@@ -3240,10 +3238,10 @@
         <v>2945222</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.1595</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>32867123</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.1595</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>6344316</v>
@@ -3262,10 +3260,10 @@
         <v>2930340</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11.7824</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>34526552</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11.7824</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>6393084</v>
@@ -3284,10 +3282,10 @@
         <v>2826413</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12.1143</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>34240056</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12.1143</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>5984944</v>
@@ -3306,10 +3304,10 @@
         <v>2860551</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.5851</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>33139813</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.5851</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>5583413</v>
@@ -3328,10 +3326,10 @@
         <v>2708473</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.7817</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>31910485</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.7817</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>5352326</v>
@@ -3350,10 +3348,10 @@
         <v>2599663</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.6883</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>30385767</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.6883</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>5228660</v>
@@ -3372,10 +3370,10 @@
         <v>2552952</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>11.4087</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>29125967</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>11.4087</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>5073435</v>
@@ -3393,10 +3391,10 @@
         <v>2515461</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>11.165</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>28085011</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>11.165</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>4973889</v>
@@ -3414,10 +3412,10 @@
         <v>2479520</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>11.1864</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>27736932</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>11.1864</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>4680618</v>
@@ -3435,10 +3433,10 @@
         <v>2316416</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>11.0608</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>25621314</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>11.0608</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>4079471</v>
@@ -3456,10 +3454,10 @@
         <v>2203889</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10.8182</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>23842024</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10.8182</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3940481</v>
@@ -3477,10 +3475,10 @@
         <v>2188617</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>10.6621</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>23335352</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>10.6621</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3707430</v>
@@ -3498,10 +3496,10 @@
         <v>2106392</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10.6459</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>22424536</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10.6459</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>3925148</v>
@@ -3788,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3898,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3954,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3968,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Filipinas</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4010,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United Republic of Tanzania</t>
+          <t>República Unida de Tanzanía</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4024,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>2642338.39</v>
+        <v>41464234.04000002</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.01897169969002592</v>
+        <v>0.2977086504366425</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>38821895.65000002</v>
+        <v>139277894.61</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2787369507466165</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>139277894.61</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4071,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4127,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4268,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Filipinas</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4296,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4310,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4324,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4366,44 +4355,36 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>406909.08</v>
+        <v>4905521.130000001</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.01924098845670009</v>
+        <v>0.2319610941992949</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>4498612.050000001</v>
+        <v>21148034.1</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2127201057425948</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>21148034.1</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4415,126 +4396,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="29" t="n"/>
-      <c r="D26" s="36" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="35" t="n"/>
+      <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="37" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="37" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="37" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="37" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="37" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="37" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="37" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="37" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="38" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="38" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="38" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="38" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="38" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="38" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="38" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="38" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="38" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4556,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4652,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4666,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4680,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4694,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4708,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4722,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4736,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4750,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4764,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4778,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4831,58 +4812,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="39" t="n"/>
+      <c r="C26" s="37" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="39" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="39" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="39" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="39" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="39" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="39" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="39" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="39" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="39" t="n"/>
-      <c r="D35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="39" t="n"/>
-      <c r="D36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4951,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5030,10 +5011,10 @@
         <v>994000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>36.835</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>36614000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>36.835</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.07000000000000001</v>
@@ -5052,10 +5033,10 @@
         <v>963000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>35.8546</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>34528000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>35.8546</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5072,10 +5053,10 @@
         <v>924000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>35.7814</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>33062000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>35.7814</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5092,10 +5073,10 @@
         <v>897000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>36.34</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>32597000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>36.34</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>20.02</v>
@@ -5114,10 +5095,10 @@
         <v>866000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>35.17319999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>30460000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>35.17319999999999</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5134,10 +5115,10 @@
         <v>884000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>34.8507</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>30808000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>34.8507</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -5154,10 +5135,10 @@
         <v>860000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>35.4384</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>30477000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>35.4384</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -5174,10 +5155,10 @@
         <v>841000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>34.6433</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>29135000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>34.6433</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -5194,10 +5175,10 @@
         <v>822000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>35.5487</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>29221000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>35.5487</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5214,10 +5195,10 @@
         <v>802570</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>37.0367</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>29724550</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>37.0367</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>4.2</v>
@@ -5236,10 +5217,10 @@
         <v>796000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>34.642</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>27575000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>34.642</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5258,10 +5239,10 @@
         <v>776000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>34.1611</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>26509000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>34.1611</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5280,10 +5261,10 @@
         <v>796500</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>35.72519999999999</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>28455100</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>35.72519999999999</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1</v>
@@ -5302,10 +5283,10 @@
         <v>830000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>35.8795</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>29780000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>35.8795</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5324,10 +5305,10 @@
         <v>770300</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>34.3626</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>26469500</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>34.3626</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5346,10 +5327,10 @@
         <v>709000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>36.9774</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>26217000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>36.9774</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5368,10 +5349,10 @@
         <v>658000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>36.2052</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>23823000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>36.2052</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5390,10 +5371,10 @@
         <v>604200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>34.7531</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>20997800</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>34.7531</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3</v>
@@ -5412,10 +5393,10 @@
         <v>569500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>33.1656</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>18887800</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>33.1656</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5434,10 +5415,10 @@
         <v>589600</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>28.3998</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>16744500</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>28.3998</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5456,10 +5437,10 @@
         <v>498600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>27.791</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>13856600</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>27.791</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>6</v>
@@ -5478,10 +5459,10 @@
         <v>475300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>27.9916</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>13304400</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>27.9916</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>6</v>
@@ -5500,10 +5481,10 @@
         <v>466200</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>30.4803</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>14209900</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>30.4803</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5522,10 +5503,10 @@
         <v>469700</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>30.0986</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>14137300</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>30.0986</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -5544,10 +5525,10 @@
         <v>490000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>34.3061</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>16810000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>34.3061</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -5566,10 +5547,10 @@
         <v>460000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>32.8261</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15100000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>32.8261</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5588,10 +5569,10 @@
         <v>447000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>29.8434</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>13340000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>29.8434</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5610,10 +5591,10 @@
         <v>438000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>23.5137</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>10299000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>23.5137</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5632,10 +5613,10 @@
         <v>428000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>23.7897</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>10182000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>23.7897</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5654,10 +5635,10 @@
         <v>441000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>24.2313</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10686000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>24.2313</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5676,10 +5657,10 @@
         <v>433000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>22.9677</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>9945000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>22.9677</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5698,10 +5679,10 @@
         <v>425000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>20.0541</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8523000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>20.0541</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5720,10 +5701,10 @@
         <v>378600</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>20.7425</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>7853100</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>20.7425</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5742,10 +5723,10 @@
         <v>365000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>19.5973</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7153000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>19.5973</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5764,10 +5745,10 @@
         <v>332800</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>19.2584</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6409200</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>19.2584</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5786,10 +5767,10 @@
         <v>500000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>11.9798</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5989900</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>11.9798</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5808,10 +5789,10 @@
         <v>306900</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>19.2828</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>5917900</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>19.2828</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5830,10 +5811,10 @@
         <v>300200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>19.034</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>5714000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>19.034</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5852,10 +5833,10 @@
         <v>304400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>17.7063</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>5389800</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>17.7063</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5874,10 +5855,10 @@
         <v>301800</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>17.388</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5247700</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>17.388</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5896,10 +5877,10 @@
         <v>282900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>16.4288</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>4647700</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>16.4288</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5918,10 +5899,10 @@
         <v>284900</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.8168</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4221300</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.8168</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>2</v>
@@ -5940,10 +5921,10 @@
         <v>290900</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>15.7442</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4580000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>15.7442</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>7</v>
@@ -5962,10 +5943,10 @@
         <v>291300</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>14.9468</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4354000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>14.9468</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>2</v>
@@ -5984,10 +5965,10 @@
         <v>274400</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15.574</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4273500</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15.574</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>22</v>
@@ -6006,10 +5987,10 @@
         <v>268400</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>16.9929</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4560900</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>16.9929</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>17</v>
@@ -6028,10 +6009,10 @@
         <v>268800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>15.7958</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4245900</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>15.7958</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>18</v>
@@ -6050,10 +6031,10 @@
         <v>245800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>15.2897</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3758200</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>15.2897</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>17</v>
@@ -6072,10 +6053,10 @@
         <v>231400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>14.7321</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3409000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>14.7321</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>8</v>
@@ -6094,10 +6075,10 @@
         <v>235200</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>13.9205</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3274100</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>13.9205</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6116,10 +6097,10 @@
         <v>222800</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>14.215</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3167100</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>14.215</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6138,10 +6119,10 @@
         <v>219400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>14.5397</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3190000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>14.5397</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6160,10 +6141,10 @@
         <v>224700</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>15.016</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3374100</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>15.016</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6182,10 +6163,10 @@
         <v>224500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12.9033</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2896800</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12.9033</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6204,10 +6185,10 @@
         <v>229800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>13.8055</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>3172500</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>13.8055</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6226,10 +6207,10 @@
         <v>220000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>14.2045</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3125000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>14.2045</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6248,10 +6229,10 @@
         <v>208000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>15.399</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3203000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>15.399</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6269,10 +6250,10 @@
         <v>209000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>16.3254</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3412000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>16.3254</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6290,10 +6271,10 @@
         <v>211000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>15.5024</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3271000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>15.5024</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6311,10 +6292,10 @@
         <v>198000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>13.5556</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2684000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>13.5556</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6332,10 +6313,10 @@
         <v>193000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>13.4767</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2601000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>13.4767</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6353,10 +6334,10 @@
         <v>181000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>13.3978</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2425000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>13.3978</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6374,10 +6355,10 @@
         <v>165000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>13.6788</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2257000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>13.6788</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6713,7 +6694,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6792,10 +6773,10 @@
         <v>318755</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>36.7141</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>11702800</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>36.7141</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1768225.85</v>
@@ -6814,10 +6795,10 @@
         <v>326850</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>36.0312</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>11776800</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>36.0312</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1810695.64</v>
@@ -6836,10 +6817,10 @@
         <v>325860</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>35.9793</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>11724200</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>35.9793</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1863625.18</v>
@@ -6858,10 +6839,10 @@
         <v>327240</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>35.1821</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>11513000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>35.1821</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1746915.35</v>
@@ -6880,10 +6861,10 @@
         <v>330310</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>35.2872</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>11655700</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>35.2872</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1939946.25</v>
@@ -6902,10 +6883,10 @@
         <v>331900</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>33.8105</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>11221700</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>33.8105</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1544606.87</v>
@@ -6924,10 +6905,10 @@
         <v>351030</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>31.8201</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>11169800</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>31.8201</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1039142.16</v>
@@ -6946,10 +6927,10 @@
         <v>364826</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>29.9869</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>10940000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>29.9869</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>887191.74</v>
@@ -6968,10 +6949,10 @@
         <v>409100</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>25.9765</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>10627000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>25.9765</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1073858.77</v>
@@ -6990,10 +6971,10 @@
         <v>392000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>30.0814</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>11791900</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>30.0814</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1127158.35</v>
@@ -7012,10 +6993,10 @@
         <v>392000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>30.8041</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>12075200</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>30.8041</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>514782</v>
@@ -7034,10 +7015,10 @@
         <v>394700</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>29.283</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>11558000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>29.283</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>626060</v>
@@ -7056,10 +7037,10 @@
         <v>386040</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>26.9402</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>10400000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>26.9402</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>818675</v>
@@ -7078,10 +7059,10 @@
         <v>357330</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>26.7554</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9560500</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>26.7554</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>665230</v>
@@ -7100,10 +7081,10 @@
         <v>338800</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>26.0741</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8833900</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>26.0741</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>491339</v>
@@ -7122,10 +7103,10 @@
         <v>317800</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>24.6529</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>7834700</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>24.6529</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>362325</v>
@@ -7144,10 +7125,10 @@
         <v>306600</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>25.4295</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>7796700</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>25.4295</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>331883</v>
@@ -7166,10 +7147,10 @@
         <v>285700</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>24.1554</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6901200</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>24.1554</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>387828</v>
@@ -7188,10 +7169,10 @@
         <v>276300</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>23.5907</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6518100</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>23.5907</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>355698</v>
@@ -7210,10 +7191,10 @@
         <v>264500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>22.8964</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6056100</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>22.8964</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>380933</v>
@@ -7232,10 +7213,10 @@
         <v>255500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>23.1049</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5903300</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>23.1049</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>421246</v>
@@ -7254,10 +7235,10 @@
         <v>247900</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>22.4163</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5557000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>22.4163</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>347807</v>
@@ -7276,10 +7257,10 @@
         <v>244980</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.5218</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>5272400</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.5218</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>413965</v>
@@ -7298,10 +7279,10 @@
         <v>249260</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>19.8247</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4941500</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>19.8247</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>593476.3</v>
@@ -7320,10 +7301,10 @@
         <v>202700</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>20.6907</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4194000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>20.6907</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>431737</v>
@@ -7342,10 +7323,10 @@
         <v>177940</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>19.7707</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3518000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>19.7707</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>539093</v>
@@ -7364,10 +7345,10 @@
         <v>180200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16.0488</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2892000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>16.0488</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>546939</v>
@@ -7386,10 +7367,10 @@
         <v>175500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>14.4501</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2536000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>14.4501</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>512778</v>
@@ -7408,10 +7389,10 @@
         <v>190200</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>16.4301</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3125000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>16.4301</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>159795</v>
@@ -7430,10 +7411,10 @@
         <v>150800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>19.2162</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2897800</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>19.2162</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>93067</v>
@@ -7452,10 +7433,10 @@
         <v>196000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>13.7791</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2700700</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>13.7791</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>29576</v>
@@ -7474,10 +7455,10 @@
         <v>182000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>13.467</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2451000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>13.467</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>20475</v>
@@ -7496,10 +7477,10 @@
         <v>132933</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>14.9037</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1981200</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>14.9037</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>9371</v>
@@ -7518,10 +7499,10 @@
         <v>108800</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>13.3817</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1455927</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>13.3817</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>13671</v>
@@ -7540,10 +7521,10 @@
         <v>110800</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>12.6691</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1403736</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>12.6691</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>12458</v>
@@ -7562,10 +7543,10 @@
         <v>141867</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>12.8971</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1829672</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>12.8971</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>20826</v>
@@ -7584,10 +7565,10 @@
         <v>153000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13.2614</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2029000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13.2614</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>41422</v>
@@ -7606,10 +7587,10 @@
         <v>72000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>17.3763</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1251094</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>17.3763</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>36099</v>
@@ -7628,10 +7609,10 @@
         <v>47000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>13.4259</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>631017</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>13.4259</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>40000</v>
@@ -7650,10 +7631,10 @@
         <v>20000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>20000</v>
@@ -7672,10 +7653,10 @@
         <v>13320</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>15.5143</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>206650</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>15.5143</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>20000</v>
@@ -7694,10 +7675,10 @@
         <v>13000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>15.4615</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>201000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>15.4615</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7716,10 +7697,10 @@
         <v>9000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>126000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7738,10 +7719,10 @@
         <v>5000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>61300</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12.26</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7760,10 +7741,10 @@
         <v>4900</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15.1939</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>74450</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15.1939</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7782,10 +7763,10 @@
         <v>5000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>85000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>17</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7804,10 +7785,10 @@
         <v>3000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>42000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>14</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7826,10 +7807,10 @@
         <v>2000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>32000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>15000</v>
@@ -7848,10 +7829,10 @@
         <v>12000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>165000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>13.75</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>10000</v>
@@ -7870,10 +7851,10 @@
         <v>13000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>12.6154</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>164000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>12.6154</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>4000</v>
@@ -7892,10 +7873,10 @@
         <v>13000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>12.3846</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>161000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>12.3846</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>15000</v>
@@ -7914,10 +7895,10 @@
         <v>10000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>114000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11.4</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7936,10 +7917,10 @@
         <v>10000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>126000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12.6</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7958,10 +7939,10 @@
         <v>13000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12.7692</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>166000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12.7692</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7980,10 +7961,10 @@
         <v>7000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.4286</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>80000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.4286</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -8002,10 +7983,10 @@
         <v>8000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.25</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8024,10 +8005,10 @@
         <v>8000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8045,10 +8026,10 @@
         <v>9000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>13.3333</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>13.3333</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8066,10 +8047,10 @@
         <v>8000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>18.125</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>145000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>18.125</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8087,10 +8068,10 @@
         <v>6000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>99000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>16.5</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8108,10 +8089,10 @@
         <v>4000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>43000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10.75</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8129,10 +8110,10 @@
         <v>4000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>35000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8.75</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8150,10 +8131,10 @@
         <v>4000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>48000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8489,7 +8470,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8568,10 +8549,10 @@
         <v>154625</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>60.3735</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>9335232.34</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>60.3735</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -8588,10 +8569,10 @@
         <v>153832</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>60.1007</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9245427.050000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>60.1007</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8608,10 +8589,10 @@
         <v>146105</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>59.8279</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>8741146.699999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>59.8279</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -8630,10 +8611,10 @@
         <v>134176</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>60.9852</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>8182756.05</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>60.9852</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.66</v>
@@ -8652,10 +8633,10 @@
         <v>121172</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>60.0855</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>7280659</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>60.0855</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1.15</v>
@@ -8674,10 +8655,10 @@
         <v>121098</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>59.9879</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>7264379</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>59.9879</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.9</v>
@@ -8696,10 +8677,10 @@
         <v>119000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>60.1906</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>7162685</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>60.1906</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -8716,10 +8697,10 @@
         <v>117000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>59.89</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7007125</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>59.89</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -8736,10 +8717,10 @@
         <v>158000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>60.1016</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>9496058</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>60.1016</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -8756,10 +8737,10 @@
         <v>114000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>60.198</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6862568</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>60.198</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>542.11</v>
@@ -8778,10 +8759,10 @@
         <v>105237</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>59.6683</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>6279290</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>59.6683</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>337</v>
@@ -8800,10 +8781,10 @@
         <v>103158</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>59.9959</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6189052</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>59.9959</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1241</v>
@@ -8822,10 +8803,10 @@
         <v>104156</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>58.8799</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6132695</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>58.8799</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1631</v>
@@ -8844,10 +8825,10 @@
         <v>101276</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>56.8256</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5755073</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>56.8256</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2853</v>
@@ -8866,10 +8847,10 @@
         <v>119018</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>53.551</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6373533</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>53.551</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>328</v>
@@ -8888,10 +8869,10 @@
         <v>107791</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>55.7061</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6004615</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>55.7061</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>56</v>
@@ -8910,10 +8891,10 @@
         <v>98143</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>55.5743</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5454226</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>55.5743</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>25</v>
@@ -8932,10 +8913,10 @@
         <v>94144</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>53.5082</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5037472</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>53.5082</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>124</v>
@@ -8954,10 +8935,10 @@
         <v>101465</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>51.0285</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5177607</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>51.0285</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>444</v>
@@ -8976,10 +8957,10 @@
         <v>95434</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>51.0765</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>4874439</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>51.0765</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>386</v>
@@ -8998,10 +8979,10 @@
         <v>85690</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>48.7473</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4177155</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>48.7473</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>464</v>
@@ -9020,10 +9001,10 @@
         <v>74751</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>58.6532</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4384384</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>58.6532</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>60</v>
@@ -9042,10 +9023,10 @@
         <v>76923</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>55.9055</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4300422</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>55.9055</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>7</v>
@@ -9064,10 +9045,10 @@
         <v>73539</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>50.952</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3746962</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>50.952</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>13.26</v>
@@ -9086,10 +9067,10 @@
         <v>70560</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>47.8437</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3375851</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>47.8437</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>372</v>
@@ -9108,10 +9089,10 @@
         <v>71537</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>44.4071</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3176749</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>44.4071</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>16</v>
@@ -9130,10 +9111,10 @@
         <v>78115</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>39.1356</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3057081</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>39.1356</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>22</v>
@@ -9152,10 +9133,10 @@
         <v>49019</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>61.6872</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3023843</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>61.6872</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>46</v>
@@ -9174,10 +9155,10 @@
         <v>49044</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>77.59219999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3805430</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>77.59219999999999</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>58</v>
@@ -9196,10 +9177,10 @@
         <v>50041</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>61.6806</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3086557</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>61.6806</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>34</v>
@@ -9218,10 +9199,10 @@
         <v>70721</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>37.3837</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2643812</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>37.3837</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9240,10 +9221,10 @@
         <v>76535</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>34.6357</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2650841</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>34.6357</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>3</v>
@@ -9262,10 +9243,10 @@
         <v>135070</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>18.3011</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2471925</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>18.3011</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9284,10 +9265,10 @@
         <v>132454</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>18.2025</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2410999</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>18.2025</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9306,10 +9287,10 @@
         <v>127843</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>17.1465</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2192054</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>17.1465</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6</v>
@@ -9328,10 +9309,10 @@
         <v>169653</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>13.6065</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2308378</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>13.6065</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9350,10 +9331,10 @@
         <v>157000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13.9639</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2192332</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13.9639</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9372,10 +9353,10 @@
         <v>149000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>16.1879</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2412000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>16.1879</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9394,10 +9375,10 @@
         <v>159598</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>11.959</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1908627</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>11.959</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9416,10 +9397,10 @@
         <v>187627</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>10.6152</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1991698</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>10.6152</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9438,10 +9419,10 @@
         <v>170610</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>10.4418</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1781469</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>10.4418</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9460,10 +9441,10 @@
         <v>191024</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>10.6583</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2036000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>10.6583</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9482,10 +9463,10 @@
         <v>176024</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>11.6934</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2058311</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>11.6934</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3</v>
@@ -9504,10 +9485,10 @@
         <v>157815</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12.5262</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1976826</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12.5262</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9526,10 +9507,10 @@
         <v>193457</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8.3855</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1622229</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8.3855</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1</v>
@@ -9548,10 +9529,10 @@
         <v>188000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>7.329800000000001</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1378000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>7.329800000000001</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1</v>
@@ -9570,10 +9551,10 @@
         <v>156303</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>11.0416</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1725830</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>11.0416</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>7</v>
@@ -9592,10 +9573,10 @@
         <v>175847</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>6.9348</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1219464</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>6.9348</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1</v>
@@ -9614,10 +9595,10 @@
         <v>319100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5.9448</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1897000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>5.9448</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9636,10 +9617,10 @@
         <v>316500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>6.4464</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2040300</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>6.4464</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9658,10 +9639,10 @@
         <v>366000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>5.9153</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2165000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>5.9153</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9680,10 +9661,10 @@
         <v>321000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5.501600000000001</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1766000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5.501600000000001</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9702,10 +9683,10 @@
         <v>214000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>7.887899999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1688000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>7.887899999999999</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9724,10 +9705,10 @@
         <v>201000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.855700000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1780000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.855700000000001</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9746,10 +9727,10 @@
         <v>200000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5.515</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1103000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5.515</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9768,10 +9749,10 @@
         <v>170000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5.4118</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>920000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5.4118</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9790,10 +9771,10 @@
         <v>160000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5.9375</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>950000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5.9375</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9811,10 +9792,10 @@
         <v>160000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6.125</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>980000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6.125</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9832,10 +9813,10 @@
         <v>145000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6.551699999999999</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>950000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6.551699999999999</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9853,10 +9834,10 @@
         <v>140000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6.285699999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>880000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6.285699999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9874,10 +9855,10 @@
         <v>135000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6.2963</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>850000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6.2963</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9895,10 +9876,10 @@
         <v>130000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6.1538</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>800000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6.1538</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9916,10 +9897,10 @@
         <v>126000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.3492</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>800000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.3492</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10255,7 +10236,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10334,10 +10315,10 @@
         <v>566568</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>12.8989</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>7308103.18</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>12.8989</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1.66</v>
@@ -10356,10 +10337,10 @@
         <v>540537</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>14.8297</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>8015978.46</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>14.8297</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>25.4</v>
@@ -10378,10 +10359,10 @@
         <v>525177</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>14.0688</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>7388610</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>14.0688</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.22</v>
@@ -10400,10 +10381,10 @@
         <v>476070</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>11.729</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5583830</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>11.729</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>5.52</v>
@@ -10523,639 +10504,1205 @@
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="28" t="n">
-        <v>2012</v>
-      </c>
-      <c r="C23" s="29" t="inlineStr"/>
-      <c r="D23" s="29" t="inlineStr"/>
-      <c r="E23" s="29" t="inlineStr"/>
-      <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
+      <c r="B23" s="29" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="28" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C24" s="29" t="inlineStr"/>
-      <c r="D24" s="29" t="inlineStr"/>
-      <c r="E24" s="29" t="inlineStr"/>
-      <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="inlineStr"/>
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="C24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="28" t="n">
-        <v>2010</v>
-      </c>
-      <c r="C25" s="29" t="inlineStr"/>
-      <c r="D25" s="29" t="inlineStr"/>
-      <c r="E25" s="29" t="inlineStr"/>
-      <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="28" t="n">
-        <v>2009</v>
-      </c>
-      <c r="C26" s="29" t="inlineStr"/>
-      <c r="D26" s="29" t="inlineStr"/>
-      <c r="E26" s="29" t="inlineStr"/>
-      <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="28" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C27" s="29" t="inlineStr"/>
-      <c r="D27" s="29" t="inlineStr"/>
-      <c r="E27" s="29" t="inlineStr"/>
-      <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="28" t="n">
-        <v>2007</v>
-      </c>
-      <c r="C28" s="29" t="inlineStr"/>
-      <c r="D28" s="29" t="inlineStr"/>
-      <c r="E28" s="29" t="inlineStr"/>
-      <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="28" t="n">
-        <v>2006</v>
-      </c>
-      <c r="C29" s="29" t="inlineStr"/>
-      <c r="D29" s="29" t="inlineStr"/>
-      <c r="E29" s="29" t="inlineStr"/>
-      <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="28" t="n">
-        <v>2005</v>
-      </c>
-      <c r="C30" s="29" t="inlineStr"/>
-      <c r="D30" s="29" t="inlineStr"/>
-      <c r="E30" s="29" t="inlineStr"/>
-      <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="28" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C31" s="29" t="inlineStr"/>
-      <c r="D31" s="29" t="inlineStr"/>
-      <c r="E31" s="29" t="inlineStr"/>
-      <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="28" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C32" s="29" t="inlineStr"/>
-      <c r="D32" s="29" t="inlineStr"/>
-      <c r="E32" s="29" t="inlineStr"/>
-      <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="28" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C33" s="29" t="inlineStr"/>
-      <c r="D33" s="29" t="inlineStr"/>
-      <c r="E33" s="29" t="inlineStr"/>
-      <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="28" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C34" s="29" t="inlineStr"/>
-      <c r="D34" s="29" t="inlineStr"/>
-      <c r="E34" s="29" t="inlineStr"/>
-      <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="28" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C35" s="29" t="inlineStr"/>
-      <c r="D35" s="29" t="inlineStr"/>
-      <c r="E35" s="29" t="inlineStr"/>
-      <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="28" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C36" s="29" t="inlineStr"/>
-      <c r="D36" s="29" t="inlineStr"/>
-      <c r="E36" s="29" t="inlineStr"/>
-      <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="28" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C37" s="29" t="inlineStr"/>
-      <c r="D37" s="29" t="inlineStr"/>
-      <c r="E37" s="29" t="inlineStr"/>
-      <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="28" t="n">
-        <v>1997</v>
-      </c>
-      <c r="C38" s="29" t="inlineStr"/>
-      <c r="D38" s="29" t="inlineStr"/>
-      <c r="E38" s="29" t="inlineStr"/>
-      <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="28" t="n">
-        <v>1996</v>
-      </c>
-      <c r="C39" s="29" t="inlineStr"/>
-      <c r="D39" s="29" t="inlineStr"/>
-      <c r="E39" s="29" t="inlineStr"/>
-      <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="28" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C40" s="29" t="inlineStr"/>
-      <c r="D40" s="29" t="inlineStr"/>
-      <c r="E40" s="29" t="inlineStr"/>
-      <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" s="28" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C41" s="29" t="inlineStr"/>
-      <c r="D41" s="29" t="inlineStr"/>
-      <c r="E41" s="29" t="inlineStr"/>
-      <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="28" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C42" s="29" t="inlineStr"/>
-      <c r="D42" s="29" t="inlineStr"/>
-      <c r="E42" s="29" t="inlineStr"/>
-      <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="28" t="n">
-        <v>1992</v>
-      </c>
-      <c r="C43" s="29" t="inlineStr"/>
-      <c r="D43" s="29" t="inlineStr"/>
-      <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11465,7 +12012,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11544,10 +12091,10 @@
         <v>183400</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>39.2502</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>7198482</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>39.2502</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3633.43</v>
@@ -11566,10 +12113,10 @@
         <v>174771</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>35.033</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6122744</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>35.033</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -11586,10 +12133,10 @@
         <v>169327</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>39.6713</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6717424</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>39.6713</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>22.53</v>
@@ -11608,10 +12155,10 @@
         <v>160630</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>37.4986</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6023390.25</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>37.4986</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11628,10 +12175,10 @@
         <v>183347</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>35.9072</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6583477</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>35.9072</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.14</v>
@@ -11650,10 +12197,10 @@
         <v>161583</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>40.2619</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6505635</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>40.2619</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -11670,10 +12217,10 @@
         <v>158057</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>39.7458</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6282105</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>39.7458</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.08</v>
@@ -11692,10 +12239,10 @@
         <v>180337</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>36.2082</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6529675.94</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>36.2082</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -11712,10 +12259,10 @@
         <v>185489</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>38.7864</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>7194431.31</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>38.7864</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -11732,10 +12279,10 @@
         <v>182158</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>37.0901</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6756253.56</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>37.0901</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -11752,10 +12299,10 @@
         <v>188658</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>31.7799</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5995527</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>31.7799</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4791</v>
@@ -11774,10 +12321,10 @@
         <v>210894</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>33.2501</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7012244.5</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>33.2501</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>8498</v>
@@ -11796,10 +12343,10 @@
         <v>191973</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>38.6918</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>7427776</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>38.6918</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>19</v>
@@ -11818,10 +12365,10 @@
         <v>215647</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>36.778</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>7931060</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>36.778</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -11840,10 +12387,10 @@
         <v>216115</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>35.3392</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>7637324</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>35.3392</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>156</v>
@@ -11862,10 +12409,10 @@
         <v>215521</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>31.0928</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6701145</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>31.0928</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>108</v>
@@ -11884,10 +12431,10 @@
         <v>197410</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>30.4053</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6002302</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>30.4053</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -11906,10 +12453,10 @@
         <v>209350</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>29.2671</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6127060</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>29.2671</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -11928,10 +12475,10 @@
         <v>221085</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>27.6745</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6118424</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>27.6745</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -11950,10 +12497,10 @@
         <v>226520</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>27.0717</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6132276</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>27.0717</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -11972,10 +12519,10 @@
         <v>233813</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>27.6024</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>6453806</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>27.6024</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -11994,10 +12541,10 @@
         <v>229622</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>24.4377</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5611438</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>24.4377</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12016,10 +12563,10 @@
         <v>228985</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>26.539</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6077040</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>26.539</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12038,10 +12585,10 @@
         <v>252571</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21.5908</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>5453220</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21.5908</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.1</v>
@@ -12060,10 +12607,10 @@
         <v>193601</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>33.0165</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6392022</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>33.0165</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12080,10 +12627,10 @@
         <v>206931</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>26.4022</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5463442</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>26.4022</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12100,10 +12647,10 @@
         <v>248350</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>23.1539</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5750261</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>23.1539</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12120,10 +12667,10 @@
         <v>236090</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>22.9694</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5422835</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>22.9694</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12140,10 +12687,10 @@
         <v>227910</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>23.7081</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5403304</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>23.7081</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -12160,10 +12707,10 @@
         <v>221270</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>22.9851</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5085915</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>22.9851</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12180,10 +12727,10 @@
         <v>203590</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>21.7202</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4422010</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>21.7202</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12200,10 +12747,10 @@
         <v>184920</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>21.602</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3994641</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>21.602</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -12220,10 +12767,10 @@
         <v>132130</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>21.3134</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2816137</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>21.3134</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -12240,10 +12787,10 @@
         <v>143230</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>21.3263</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3054566</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>21.3263</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -12260,10 +12807,10 @@
         <v>130650</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>19.7185</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2576220</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>19.7185</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -12280,10 +12827,10 @@
         <v>127230</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>20.2476</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2576096</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>20.2476</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -12300,10 +12847,10 @@
         <v>119500</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>19.9707</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2386503</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>19.9707</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -12320,10 +12867,10 @@
         <v>111827</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>20.7145</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2316437</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>20.7145</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -12340,10 +12887,10 @@
         <v>65188</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>30.2135</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1969559</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>30.2135</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -12360,10 +12907,10 @@
         <v>60646</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>27.6617</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1677571</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>27.6617</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -12380,10 +12927,10 @@
         <v>59306</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>27.6881</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1642073</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>27.6881</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -12400,10 +12947,10 @@
         <v>65009</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>30.7457</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1998749</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>30.7457</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -12420,10 +12967,10 @@
         <v>63999</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>31.4044</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2009850</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>31.4044</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -12440,10 +12987,10 @@
         <v>70494</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>32.1939</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2269479</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>32.1939</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -12460,10 +13007,10 @@
         <v>67547</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>30.0762</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2031559</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>30.0762</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -12480,10 +13027,10 @@
         <v>76864</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2152192</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>28</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -12500,10 +13047,10 @@
         <v>100540</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>24.3753</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2450690</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>24.3753</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -12520,10 +13067,10 @@
         <v>107300</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>23.9602</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2570925</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>23.9602</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -12540,10 +13087,10 @@
         <v>109860</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>23.1597</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2544327</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>23.1597</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -12560,10 +13107,10 @@
         <v>151779</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>17.6336</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2676411</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>17.6336</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -12580,10 +13127,10 @@
         <v>161907</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>15.4158</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2495927</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>15.4158</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -12600,10 +13147,10 @@
         <v>170740</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>15.1203</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2581639</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>15.1203</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -12620,10 +13167,10 @@
         <v>181050</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>15.1502</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2742948</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>15.1502</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -12640,10 +13187,10 @@
         <v>193560</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>15.041</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2911342</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>15.041</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -12660,10 +13207,10 @@
         <v>190170</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>15.939</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>3031113</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>15.939</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -12680,10 +13227,10 @@
         <v>195095</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>14.1732</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2765117</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>14.1732</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -12700,10 +13247,10 @@
         <v>202716</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.6129</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2556828</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.6129</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -12719,10 +13266,10 @@
         <v>186688</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>13.5096</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2522089</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>13.5096</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -12738,10 +13285,10 @@
         <v>210000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>15.7333</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3304000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>15.7333</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -12757,10 +13304,10 @@
         <v>169000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>19.5266</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3300000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>19.5266</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -12776,10 +13323,10 @@
         <v>122000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>20.2705</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2473000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>20.2705</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -12795,10 +13342,10 @@
         <v>111000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>22.3964</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2486000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>22.3964</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -12814,10 +13361,10 @@
         <v>114000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>22.7807</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2597000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>22.7807</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">

--- a/Resultados/Mercado mundial - Bananos.xlsx
+++ b/Resultados/Mercado mundial - Bananos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nigeria" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ecuador" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="China, mainland" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Nigeria" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Ecuador" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,10 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +408,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +434,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +490,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +516,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +572,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +598,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$23</f>
+              <f>'Países exportadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$23</f>
+              <f>'Países exportadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +654,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +680,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +736,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +762,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +818,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +844,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +900,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +926,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +982,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1008,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1064,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,10 +1090,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1144,7 +1146,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1164,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1204,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1216,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1234,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1274,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1286,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1304,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1344,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1356,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1374,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1414,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1426,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1441,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1463,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1478,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1493,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1515,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1530,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1545,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1567,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1582,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1597,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1619,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1634,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1649,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1671,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2012,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2061,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2140,10 @@
         <v>5973253</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>139277894.61</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>23.3169</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>139277894.61</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>22511771.42</v>
@@ -2160,10 +2162,10 @@
         <v>5917437</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>135505239.34</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>22.8993</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>135505239.34</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>22586293.41</v>
@@ -2182,10 +2184,10 @@
         <v>5822381</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>132332032.54</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>22.7282</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>132332032.54</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>23033604.87</v>
@@ -2204,10 +2206,10 @@
         <v>5597221</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>126451453.19</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.5918</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>126451453.19</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>23085385.95</v>
@@ -2226,10 +2228,10 @@
         <v>5033416</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>117342463.75</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>23.3127</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>117342463.75</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>23158798.01</v>
@@ -2248,10 +2250,10 @@
         <v>5014951</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>117168226.31</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>23.3638</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>117168226.31</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>22552605.97</v>
@@ -2270,10 +2272,10 @@
         <v>5073555</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>113162382.16</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>22.3044</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>113162382.16</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>22193503.65</v>
@@ -2292,10 +2294,10 @@
         <v>5199281</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>111039786.82</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>21.3568</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>111039786.82</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>20341968.63</v>
@@ -2314,10 +2316,10 @@
         <v>5350617</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>113858794.02</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>21.2796</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>113858794.02</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>20380314.93</v>
@@ -2336,10 +2338,10 @@
         <v>5250873</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>111989038.2</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>21.3277</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>111989038.2</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>20091471.89</v>
@@ -2358,10 +2360,10 @@
         <v>5427385</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>111741302.43</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>20.5884</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>111741302.43</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19661012</v>
@@ -2380,10 +2382,10 @@
         <v>5390127</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>108651362.5</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>20.1575</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>108651362.5</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>18309599</v>
@@ -2402,10 +2404,10 @@
         <v>5592813</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>110004623.93</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>19.6689</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>110004623.93</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>18716605</v>
@@ -2424,10 +2426,10 @@
         <v>5500920</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>109437280.41</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>19.8944</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>109437280.41</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>17925703</v>
@@ -2446,10 +2448,10 @@
         <v>5146139</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>101857799.02</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>19.7931</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>101857799.02</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>17228713</v>
@@ -2468,10 +2470,10 @@
         <v>5001459</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>97628379.43000001</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>19.52</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>97628379.43000001</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>17614525</v>
@@ -2490,10 +2492,10 @@
         <v>4892946</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>93274419.59999999</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>19.063</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>93274419.59999999</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>17220702</v>
@@ -2512,10 +2514,10 @@
         <v>4898334</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>87716340.23999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>17.9074</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>87716340.23999999</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>16410558</v>
@@ -2534,10 +2536,10 @@
         <v>4641090</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>82754814.28</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>17.8309</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>82754814.28</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>15422868</v>
@@ -2556,10 +2558,10 @@
         <v>4643601</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>78454832.34</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>16.8953</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>78454832.34</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>15080553</v>
@@ -2578,10 +2580,10 @@
         <v>4614171</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>74049202.56999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>16.0482</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>74049202.56999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>14695590</v>
@@ -2600,10 +2602,10 @@
         <v>4481831</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>71906611.61</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>16.044</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>71906611.61</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>13900112</v>
@@ -2622,10 +2624,10 @@
         <v>4394968</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>69086062.25</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>15.7194</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>69086062.25</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>13635182.38</v>
@@ -2644,10 +2646,10 @@
         <v>4411226</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>66270002.44</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>15.023</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>66270002.44</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>14433001.17</v>
@@ -2666,10 +2668,10 @@
         <v>4293189</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>69082633.67</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>16.0912</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>69082633.67</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>14037820.31</v>
@@ -2688,10 +2690,10 @@
         <v>4236789</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>63958071.55</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15.0959</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>63958071.55</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>13266028.68</v>
@@ -2710,10 +2712,10 @@
         <v>4112715</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>61750313.56</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>15.0145</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>61750313.56</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>13563510.96</v>
@@ -2732,10 +2734,10 @@
         <v>3802238</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>57015594.66</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>14.9953</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>57015594.66</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>13593262</v>
@@ -2754,10 +2756,10 @@
         <v>3723159</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>58059329.21</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>15.5941</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>58059329.21</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>12874131.18</v>
@@ -2776,10 +2778,10 @@
         <v>3665941</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>57415566.97</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>15.6619</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>57415566.97</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>12382189</v>
@@ -2798,10 +2800,10 @@
         <v>3837980</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>55697729.1</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>14.5123</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>55697729.1</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>11176582</v>
@@ -2820,10 +2822,10 @@
         <v>3992921</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>55047010.18</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>13.7861</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>55047010.18</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>10664879</v>
@@ -2842,10 +2844,10 @@
         <v>3752616</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>50620730.52</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>13.4895</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>50620730.52</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>9994708</v>
@@ -2864,10 +2866,10 @@
         <v>3724755</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>49936000.14</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>13.4065</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>49936000.14</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>8878903</v>
@@ -2886,10 +2888,10 @@
         <v>3689911</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>47834767</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>12.9637</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>47834767</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>8100760</v>
@@ -2908,10 +2910,10 @@
         <v>3806729</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>47244990</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>12.4109</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>47244990</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>7515273</v>
@@ -2930,10 +2932,10 @@
         <v>3427991</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>46720499</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13.6291</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>46720499</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>7418395</v>
@@ -2952,10 +2954,10 @@
         <v>3302484</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>45093345</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>13.6544</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>45093345</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>7148987</v>
@@ -2974,10 +2976,10 @@
         <v>3221893</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>42514787</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>13.1956</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>42514787</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>7012137</v>
@@ -2996,10 +2998,10 @@
         <v>3144249</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>41375343</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>13.1591</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>41375343</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>6519588</v>
@@ -3018,10 +3020,10 @@
         <v>3074115</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>39248565</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>12.7674</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>39248565</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>6060076</v>
@@ -3040,10 +3042,10 @@
         <v>3117031</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>40541722</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>13.0065</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>40541722</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>6745939</v>
@@ -3062,10 +3064,10 @@
         <v>3011219</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>39866060</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>13.2392</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>39866060</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>6723484</v>
@@ -3084,10 +3086,10 @@
         <v>2998521</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>39097925</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13.0391</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>39097925</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>6677303</v>
@@ -3106,10 +3108,10 @@
         <v>2902568</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>37550260</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>12.9369</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>37550260</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>7004118</v>
@@ -3128,10 +3130,10 @@
         <v>2839689</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>36539279</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>12.8674</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>36539279</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>6826344</v>
@@ -3150,10 +3152,10 @@
         <v>2886776</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>36089738</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12.5017</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>36089738</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>6535780</v>
@@ -3172,10 +3174,10 @@
         <v>2842681</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>34333324</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>12.0778</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>34333324</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>6319566</v>
@@ -3194,10 +3196,10 @@
         <v>2858004</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>33139551</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11.5953</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>33139551</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>6278475</v>
@@ -3216,10 +3218,10 @@
         <v>2920158</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>33511739</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.476</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>33511739</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>6294464</v>
@@ -3238,10 +3240,10 @@
         <v>2945222</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>32867123</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.1595</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>32867123</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>6344316</v>
@@ -3260,10 +3262,10 @@
         <v>2930340</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>34526552</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11.7824</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>34526552</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>6393084</v>
@@ -3282,10 +3284,10 @@
         <v>2826413</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>34240056</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12.1143</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>34240056</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>5984944</v>
@@ -3304,10 +3306,10 @@
         <v>2860551</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>33139813</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.5851</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>33139813</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>5583413</v>
@@ -3326,10 +3328,10 @@
         <v>2708473</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>31910485</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.7817</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>31910485</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>5352326</v>
@@ -3348,10 +3350,10 @@
         <v>2599663</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>30385767</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.6883</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>30385767</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>5228660</v>
@@ -3370,10 +3372,10 @@
         <v>2552952</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>29125967</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>11.4087</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>29125967</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>5073435</v>
@@ -3391,10 +3393,10 @@
         <v>2515461</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>28085011</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>11.165</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>28085011</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>4973889</v>
@@ -3412,10 +3414,10 @@
         <v>2479520</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>27736932</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>11.1864</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>27736932</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>4680618</v>
@@ -3433,10 +3435,10 @@
         <v>2316416</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>25621314</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>11.0608</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>25621314</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>4079471</v>
@@ -3454,10 +3456,10 @@
         <v>2203889</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>23842024</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10.8182</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>23842024</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3940481</v>
@@ -3475,10 +3477,10 @@
         <v>2188617</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>23335352</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>10.6621</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>23335352</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3707430</v>
@@ -3496,10 +3498,10 @@
         <v>2106392</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>22424536</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10.6459</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>22424536</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>3925148</v>
@@ -3786,8 +3788,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3896,7 +3898,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3952,7 +3954,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3968,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Filipinas</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4008,7 +4010,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>República Unida de Tanzanía</t>
+          <t>United Republic of Tanzania</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4022,35 +4024,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>41464234.04000002</v>
+        <v>2642338.39</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2977086504366425</v>
+        <v>0.01897169969002592</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>38821895.65000002</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.2787369507466165</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>139277894.61</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4071,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4127,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4257,7 +4268,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Filipinas</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4285,7 +4296,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4310,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4324,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4355,36 +4366,44 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>4905521.130000001</v>
+        <v>406909.08</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2319610941992949</v>
+        <v>0.01924098845670009</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>21148034.1</v>
+        <v>4498612.050000001</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>1</v>
+        <v>0.2127201057425948</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="29" t="n">
+        <v>21148034.1</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4396,126 +4415,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
-      <c r="E26" s="25" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="29" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="29" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="37" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="37" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="37" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="37" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="37" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="37" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="37" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="37" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="37" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="37" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="38" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="38" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="38" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="38" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="38" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="38" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="38" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="38" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="38" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4556,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4652,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4666,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4680,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4694,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4708,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4722,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4736,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4750,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4764,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4778,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4812,58 +4831,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
+      <c r="C26" s="39" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="39" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="39" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="39" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="39" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="39" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="39" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="39" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="39" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="39" t="n"/>
+      <c r="D35" s="38" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="39" t="n"/>
+      <c r="D36" s="38" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4951,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5030,10 @@
         <v>994000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>36614000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>36.835</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>36614000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.07000000000000001</v>
@@ -5033,10 +5052,10 @@
         <v>963000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>34528000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>35.8546</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>34528000</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5053,10 +5072,10 @@
         <v>924000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>33062000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>35.7814</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>33062000</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5073,10 +5092,10 @@
         <v>897000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>32597000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>36.34</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>32597000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>20.02</v>
@@ -5095,10 +5114,10 @@
         <v>866000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>30460000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>35.17319999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>30460000</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5115,10 +5134,10 @@
         <v>884000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>30808000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>34.8507</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>30808000</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -5135,10 +5154,10 @@
         <v>860000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>30477000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>35.4384</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>30477000</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -5155,10 +5174,10 @@
         <v>841000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>29135000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>34.6433</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>29135000</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -5175,10 +5194,10 @@
         <v>822000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>29221000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>35.5487</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>29221000</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5195,10 +5214,10 @@
         <v>802570</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>29724550</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>37.0367</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>29724550</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>4.2</v>
@@ -5217,10 +5236,10 @@
         <v>796000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>27575000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>34.642</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>27575000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5239,10 +5258,10 @@
         <v>776000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>26509000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>34.1611</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>26509000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5261,10 +5280,10 @@
         <v>796500</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>28455100</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>35.72519999999999</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>28455100</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1</v>
@@ -5283,10 +5302,10 @@
         <v>830000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>29780000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>35.8795</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>29780000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5305,10 +5324,10 @@
         <v>770300</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>26469500</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>34.3626</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>26469500</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5327,10 +5346,10 @@
         <v>709000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>26217000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>36.9774</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>26217000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5349,10 +5368,10 @@
         <v>658000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>23823000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>36.2052</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>23823000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5371,10 +5390,10 @@
         <v>604200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>20997800</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>34.7531</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>20997800</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3</v>
@@ -5393,10 +5412,10 @@
         <v>569500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>18887800</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>33.1656</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>18887800</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5415,10 +5434,10 @@
         <v>589600</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>16744500</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>28.3998</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>16744500</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5437,10 +5456,10 @@
         <v>498600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>13856600</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>27.791</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>13856600</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>6</v>
@@ -5459,10 +5478,10 @@
         <v>475300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>13304400</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>27.9916</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>13304400</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>6</v>
@@ -5481,10 +5500,10 @@
         <v>466200</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>14209900</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>30.4803</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>14209900</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5503,10 +5522,10 @@
         <v>469700</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>14137300</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>30.0986</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>14137300</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -5525,10 +5544,10 @@
         <v>490000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>16810000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>34.3061</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>16810000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -5547,10 +5566,10 @@
         <v>460000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15100000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>32.8261</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15100000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5569,10 +5588,10 @@
         <v>447000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>13340000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>29.8434</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>13340000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -5591,10 +5610,10 @@
         <v>438000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>10299000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>23.5137</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>10299000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -5613,10 +5632,10 @@
         <v>428000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>10182000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>23.7897</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>10182000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5635,10 +5654,10 @@
         <v>441000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10686000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>24.2313</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10686000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -5657,10 +5676,10 @@
         <v>433000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>9945000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>22.9677</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>9945000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5679,10 +5698,10 @@
         <v>425000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8523000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>20.0541</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8523000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5701,10 +5720,10 @@
         <v>378600</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>7853100</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>20.7425</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>7853100</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5723,10 +5742,10 @@
         <v>365000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7153000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>19.5973</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7153000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5745,10 +5764,10 @@
         <v>332800</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6409200</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>19.2584</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6409200</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5767,10 +5786,10 @@
         <v>500000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5989900</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>11.9798</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5989900</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5789,10 +5808,10 @@
         <v>306900</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>5917900</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>19.2828</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>5917900</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5811,10 +5830,10 @@
         <v>300200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>5714000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>19.034</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>5714000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5833,10 +5852,10 @@
         <v>304400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>5389800</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>17.7063</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>5389800</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5855,10 +5874,10 @@
         <v>301800</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5247700</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>17.388</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>5247700</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5877,10 +5896,10 @@
         <v>282900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>4647700</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>16.4288</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>4647700</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5899,10 +5918,10 @@
         <v>284900</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4221300</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.8168</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4221300</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>2</v>
@@ -5921,10 +5940,10 @@
         <v>290900</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4580000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>15.7442</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4580000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>7</v>
@@ -5943,10 +5962,10 @@
         <v>291300</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4354000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>14.9468</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4354000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>2</v>
@@ -5965,10 +5984,10 @@
         <v>274400</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4273500</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15.574</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4273500</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>22</v>
@@ -5987,10 +6006,10 @@
         <v>268400</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4560900</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>16.9929</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4560900</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>17</v>
@@ -6009,10 +6028,10 @@
         <v>268800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4245900</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>15.7958</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4245900</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>18</v>
@@ -6031,10 +6050,10 @@
         <v>245800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3758200</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>15.2897</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3758200</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>17</v>
@@ -6053,10 +6072,10 @@
         <v>231400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3409000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>14.7321</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3409000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>8</v>
@@ -6075,10 +6094,10 @@
         <v>235200</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3274100</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>13.9205</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3274100</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6097,10 +6116,10 @@
         <v>222800</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3167100</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>14.215</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3167100</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6119,10 +6138,10 @@
         <v>219400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3190000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>14.5397</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3190000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6141,10 +6160,10 @@
         <v>224700</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3374100</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>15.016</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3374100</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6163,10 +6182,10 @@
         <v>224500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2896800</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12.9033</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2896800</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6185,10 +6204,10 @@
         <v>229800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>3172500</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>13.8055</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>3172500</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6207,10 +6226,10 @@
         <v>220000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3125000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>14.2045</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3125000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6229,10 +6248,10 @@
         <v>208000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3203000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>15.399</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3203000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6250,10 +6269,10 @@
         <v>209000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3412000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>16.3254</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3412000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6271,10 +6290,10 @@
         <v>211000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3271000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>15.5024</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3271000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6292,10 +6311,10 @@
         <v>198000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2684000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>13.5556</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2684000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6313,10 +6332,10 @@
         <v>193000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2601000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>13.4767</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2601000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6334,10 +6353,10 @@
         <v>181000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2425000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>13.3978</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2425000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6355,10 +6374,10 @@
         <v>165000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2257000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>13.6788</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2257000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6694,7 +6713,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6773,10 +6792,10 @@
         <v>318755</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>11702800</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>36.7141</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>11702800</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1768225.85</v>
@@ -6795,10 +6814,10 @@
         <v>326850</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>11776800</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>36.0312</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>11776800</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1810695.64</v>
@@ -6817,10 +6836,10 @@
         <v>325860</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>11724200</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>35.9793</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>11724200</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1863625.18</v>
@@ -6839,10 +6858,10 @@
         <v>327240</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>11513000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>35.1821</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>11513000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1746915.35</v>
@@ -6861,10 +6880,10 @@
         <v>330310</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>11655700</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>35.2872</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>11655700</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1939946.25</v>
@@ -6883,10 +6902,10 @@
         <v>331900</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>11221700</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>33.8105</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>11221700</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1544606.87</v>
@@ -6905,10 +6924,10 @@
         <v>351030</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>11169800</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>31.8201</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>11169800</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1039142.16</v>
@@ -6927,10 +6946,10 @@
         <v>364826</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>10940000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>29.9869</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>10940000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>887191.74</v>
@@ -6949,10 +6968,10 @@
         <v>409100</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>10627000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>25.9765</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>10627000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1073858.77</v>
@@ -6971,10 +6990,10 @@
         <v>392000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>11791900</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>30.0814</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>11791900</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1127158.35</v>
@@ -6993,10 +7012,10 @@
         <v>392000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>12075200</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>30.8041</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>12075200</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>514782</v>
@@ -7015,10 +7034,10 @@
         <v>394700</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>11558000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>29.283</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>11558000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>626060</v>
@@ -7037,10 +7056,10 @@
         <v>386040</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>10400000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>26.9402</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>10400000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>818675</v>
@@ -7059,10 +7078,10 @@
         <v>357330</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9560500</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>26.7554</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>9560500</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>665230</v>
@@ -7081,10 +7100,10 @@
         <v>338800</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8833900</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>26.0741</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>8833900</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>491339</v>
@@ -7103,10 +7122,10 @@
         <v>317800</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>7834700</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>24.6529</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>7834700</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>362325</v>
@@ -7125,10 +7144,10 @@
         <v>306600</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>7796700</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>25.4295</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>7796700</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>331883</v>
@@ -7147,10 +7166,10 @@
         <v>285700</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6901200</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>24.1554</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6901200</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>387828</v>
@@ -7169,10 +7188,10 @@
         <v>276300</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6518100</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>23.5907</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6518100</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>355698</v>
@@ -7191,10 +7210,10 @@
         <v>264500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6056100</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>22.8964</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6056100</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>380933</v>
@@ -7213,10 +7232,10 @@
         <v>255500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5903300</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>23.1049</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5903300</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>421246</v>
@@ -7235,10 +7254,10 @@
         <v>247900</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5557000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>22.4163</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5557000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>347807</v>
@@ -7257,10 +7276,10 @@
         <v>244980</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>5272400</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.5218</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>5272400</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>413965</v>
@@ -7279,10 +7298,10 @@
         <v>249260</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4941500</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>19.8247</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4941500</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>593476.3</v>
@@ -7301,10 +7320,10 @@
         <v>202700</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4194000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>20.6907</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>4194000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>431737</v>
@@ -7323,10 +7342,10 @@
         <v>177940</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3518000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>19.7707</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3518000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>539093</v>
@@ -7345,10 +7364,10 @@
         <v>180200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2892000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16.0488</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2892000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>546939</v>
@@ -7367,10 +7386,10 @@
         <v>175500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2536000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>14.4501</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2536000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>512778</v>
@@ -7389,10 +7408,10 @@
         <v>190200</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3125000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>16.4301</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3125000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>159795</v>
@@ -7411,10 +7430,10 @@
         <v>150800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2897800</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>19.2162</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2897800</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>93067</v>
@@ -7433,10 +7452,10 @@
         <v>196000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2700700</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>13.7791</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2700700</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>29576</v>
@@ -7455,10 +7474,10 @@
         <v>182000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2451000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>13.467</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2451000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>20475</v>
@@ -7477,10 +7496,10 @@
         <v>132933</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1981200</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>14.9037</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1981200</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>9371</v>
@@ -7499,10 +7518,10 @@
         <v>108800</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1455927</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>13.3817</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1455927</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>13671</v>
@@ -7521,10 +7540,10 @@
         <v>110800</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1403736</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>12.6691</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1403736</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>12458</v>
@@ -7543,10 +7562,10 @@
         <v>141867</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1829672</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>12.8971</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1829672</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>20826</v>
@@ -7565,10 +7584,10 @@
         <v>153000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2029000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13.2614</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2029000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>41422</v>
@@ -7587,10 +7606,10 @@
         <v>72000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1251094</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>17.3763</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1251094</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>36099</v>
@@ -7609,10 +7628,10 @@
         <v>47000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>631017</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>13.4259</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>631017</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>40000</v>
@@ -7631,10 +7650,10 @@
         <v>20000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>20000</v>
@@ -7653,10 +7672,10 @@
         <v>13320</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>206650</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>15.5143</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>206650</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>20000</v>
@@ -7675,10 +7694,10 @@
         <v>13000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>201000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>15.4615</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>201000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7697,10 +7716,10 @@
         <v>9000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>126000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7719,10 +7738,10 @@
         <v>5000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>61300</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12.26</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>61300</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7741,10 +7760,10 @@
         <v>4900</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>74450</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15.1939</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>74450</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7763,10 +7782,10 @@
         <v>5000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>17</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>85000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7785,10 +7804,10 @@
         <v>3000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>42000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>14</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>42000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7807,10 +7826,10 @@
         <v>2000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>32000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>32000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>15000</v>
@@ -7829,10 +7848,10 @@
         <v>12000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>165000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>13.75</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>165000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>10000</v>
@@ -7851,10 +7870,10 @@
         <v>13000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>164000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>12.6154</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>164000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>4000</v>
@@ -7873,10 +7892,10 @@
         <v>13000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>161000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>12.3846</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>161000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>15000</v>
@@ -7895,10 +7914,10 @@
         <v>10000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>114000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11.4</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>114000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7917,10 +7936,10 @@
         <v>10000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12.6</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>126000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7939,10 +7958,10 @@
         <v>13000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>166000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12.7692</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>166000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7961,10 +7980,10 @@
         <v>7000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.4286</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>80000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7983,10 +8002,10 @@
         <v>8000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.25</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8005,10 +8024,10 @@
         <v>8000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8026,10 +8045,10 @@
         <v>9000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>13.3333</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8047,10 +8066,10 @@
         <v>8000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>145000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>18.125</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>145000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8068,10 +8087,10 @@
         <v>6000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>99000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>16.5</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>99000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8089,10 +8108,10 @@
         <v>4000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>43000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10.75</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>43000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8110,10 +8129,10 @@
         <v>4000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8.75</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>35000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8131,10 +8150,10 @@
         <v>4000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>48000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8470,7 +8489,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8549,10 +8568,10 @@
         <v>154625</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>9335232.34</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>60.3735</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>9335232.34</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -8569,10 +8588,10 @@
         <v>153832</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9245427.050000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>60.1007</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>9245427.050000001</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8589,10 +8608,10 @@
         <v>146105</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>8741146.699999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>59.8279</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>8741146.699999999</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -8611,10 +8630,10 @@
         <v>134176</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>8182756.05</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>60.9852</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>8182756.05</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.66</v>
@@ -8633,10 +8652,10 @@
         <v>121172</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>7280659</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>60.0855</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>7280659</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1.15</v>
@@ -8655,10 +8674,10 @@
         <v>121098</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>7264379</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>59.9879</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>7264379</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.9</v>
@@ -8677,10 +8696,10 @@
         <v>119000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>7162685</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>60.1906</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>7162685</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -8697,10 +8716,10 @@
         <v>117000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7007125</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>59.89</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7007125</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -8717,10 +8736,10 @@
         <v>158000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>9496058</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>60.1016</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>9496058</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -8737,10 +8756,10 @@
         <v>114000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6862568</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>60.198</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6862568</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>542.11</v>
@@ -8759,10 +8778,10 @@
         <v>105237</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>6279290</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>59.6683</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>6279290</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>337</v>
@@ -8781,10 +8800,10 @@
         <v>103158</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6189052</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>59.9959</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6189052</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1241</v>
@@ -8803,10 +8822,10 @@
         <v>104156</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6132695</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>58.8799</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6132695</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1631</v>
@@ -8825,10 +8844,10 @@
         <v>101276</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5755073</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>56.8256</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>5755073</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2853</v>
@@ -8847,10 +8866,10 @@
         <v>119018</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6373533</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>53.551</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6373533</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>328</v>
@@ -8869,10 +8888,10 @@
         <v>107791</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6004615</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>55.7061</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6004615</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>56</v>
@@ -8891,10 +8910,10 @@
         <v>98143</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5454226</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>55.5743</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5454226</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>25</v>
@@ -8913,10 +8932,10 @@
         <v>94144</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5037472</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>53.5082</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5037472</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>124</v>
@@ -8935,10 +8954,10 @@
         <v>101465</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5177607</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>51.0285</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5177607</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>444</v>
@@ -8957,10 +8976,10 @@
         <v>95434</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>4874439</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>51.0765</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>4874439</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>386</v>
@@ -8979,10 +8998,10 @@
         <v>85690</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4177155</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>48.7473</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4177155</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>464</v>
@@ -9001,10 +9020,10 @@
         <v>74751</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4384384</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>58.6532</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4384384</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>60</v>
@@ -9023,10 +9042,10 @@
         <v>76923</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4300422</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>55.9055</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4300422</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>7</v>
@@ -9045,10 +9064,10 @@
         <v>73539</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3746962</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>50.952</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3746962</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>13.26</v>
@@ -9067,10 +9086,10 @@
         <v>70560</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3375851</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>47.8437</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3375851</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>372</v>
@@ -9089,10 +9108,10 @@
         <v>71537</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3176749</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>44.4071</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3176749</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>16</v>
@@ -9111,10 +9130,10 @@
         <v>78115</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3057081</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>39.1356</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3057081</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>22</v>
@@ -9133,10 +9152,10 @@
         <v>49019</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3023843</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>61.6872</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3023843</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>46</v>
@@ -9155,10 +9174,10 @@
         <v>49044</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3805430</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>77.59219999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3805430</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>58</v>
@@ -9177,10 +9196,10 @@
         <v>50041</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3086557</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>61.6806</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3086557</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>34</v>
@@ -9199,10 +9218,10 @@
         <v>70721</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2643812</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>37.3837</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2643812</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9221,10 +9240,10 @@
         <v>76535</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2650841</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>34.6357</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2650841</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>3</v>
@@ -9243,10 +9262,10 @@
         <v>135070</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2471925</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>18.3011</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2471925</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9265,10 +9284,10 @@
         <v>132454</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2410999</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>18.2025</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2410999</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9287,10 +9306,10 @@
         <v>127843</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2192054</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>17.1465</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2192054</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6</v>
@@ -9309,10 +9328,10 @@
         <v>169653</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2308378</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>13.6065</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2308378</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9331,10 +9350,10 @@
         <v>157000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2192332</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13.9639</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2192332</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9353,10 +9372,10 @@
         <v>149000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2412000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>16.1879</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2412000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9375,10 +9394,10 @@
         <v>159598</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1908627</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>11.959</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1908627</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9397,10 +9416,10 @@
         <v>187627</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1991698</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>10.6152</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1991698</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9419,10 +9438,10 @@
         <v>170610</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1781469</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>10.4418</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1781469</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9441,10 +9460,10 @@
         <v>191024</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2036000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>10.6583</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2036000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9463,10 +9482,10 @@
         <v>176024</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2058311</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>11.6934</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2058311</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3</v>
@@ -9485,10 +9504,10 @@
         <v>157815</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1976826</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12.5262</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1976826</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9507,10 +9526,10 @@
         <v>193457</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1622229</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8.3855</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1622229</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1</v>
@@ -9529,10 +9548,10 @@
         <v>188000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1378000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>7.329800000000001</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1378000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1</v>
@@ -9551,10 +9570,10 @@
         <v>156303</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1725830</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>11.0416</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1725830</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>7</v>
@@ -9573,10 +9592,10 @@
         <v>175847</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1219464</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>6.9348</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1219464</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1</v>
@@ -9595,10 +9614,10 @@
         <v>319100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1897000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5.9448</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1897000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9617,10 +9636,10 @@
         <v>316500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2040300</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>6.4464</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2040300</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9639,10 +9658,10 @@
         <v>366000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2165000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>5.9153</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2165000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9661,10 +9680,10 @@
         <v>321000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1766000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5.501600000000001</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1766000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9683,10 +9702,10 @@
         <v>214000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1688000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>7.887899999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1688000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9705,10 +9724,10 @@
         <v>201000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.855700000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1780000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9727,10 +9746,10 @@
         <v>200000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1103000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5.515</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1103000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9749,10 +9768,10 @@
         <v>170000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>920000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5.4118</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>920000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9771,10 +9790,10 @@
         <v>160000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>950000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5.9375</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>950000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9792,10 +9811,10 @@
         <v>160000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>980000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6.125</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>980000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9813,10 +9832,10 @@
         <v>145000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>950000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6.551699999999999</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>950000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9834,10 +9853,10 @@
         <v>140000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>880000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6.285699999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>880000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9855,10 +9874,10 @@
         <v>135000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>850000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6.2963</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>850000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9876,10 +9895,10 @@
         <v>130000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6.1538</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>800000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9897,10 +9916,10 @@
         <v>126000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.3492</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>800000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10236,7 +10255,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10315,10 +10334,10 @@
         <v>566568</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>7308103.18</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>12.8989</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>7308103.18</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1.66</v>
@@ -10337,10 +10356,10 @@
         <v>540537</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>8015978.46</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>14.8297</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>8015978.46</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>25.4</v>
@@ -10359,10 +10378,10 @@
         <v>525177</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>7388610</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>14.0688</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>7388610</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.22</v>
@@ -10381,10 +10400,10 @@
         <v>476070</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5583830</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>11.729</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5583830</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>5.52</v>
@@ -10504,1205 +10523,639 @@
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="29" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="C23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23" s="28" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C23" s="29" t="inlineStr"/>
+      <c r="D23" s="29" t="inlineStr"/>
+      <c r="E23" s="29" t="inlineStr"/>
+      <c r="F23" s="29" t="inlineStr"/>
+      <c r="G23" s="29" t="inlineStr"/>
       <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B24" s="28" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C24" s="29" t="inlineStr"/>
+      <c r="D24" s="29" t="inlineStr"/>
+      <c r="E24" s="29" t="inlineStr"/>
+      <c r="F24" s="29" t="inlineStr"/>
+      <c r="G24" s="29" t="inlineStr"/>
       <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+      <c r="B25" s="28" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C25" s="29" t="inlineStr"/>
+      <c r="D25" s="29" t="inlineStr"/>
+      <c r="E25" s="29" t="inlineStr"/>
+      <c r="F25" s="29" t="inlineStr"/>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
+      <c r="B26" s="28" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C26" s="29" t="inlineStr"/>
+      <c r="D26" s="29" t="inlineStr"/>
+      <c r="E26" s="29" t="inlineStr"/>
+      <c r="F26" s="29" t="inlineStr"/>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+      <c r="B27" s="28" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C27" s="29" t="inlineStr"/>
+      <c r="D27" s="29" t="inlineStr"/>
+      <c r="E27" s="29" t="inlineStr"/>
+      <c r="F27" s="29" t="inlineStr"/>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+      <c r="B28" s="28" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C28" s="29" t="inlineStr"/>
+      <c r="D28" s="29" t="inlineStr"/>
+      <c r="E28" s="29" t="inlineStr"/>
+      <c r="F28" s="29" t="inlineStr"/>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B29" s="28" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C29" s="29" t="inlineStr"/>
+      <c r="D29" s="29" t="inlineStr"/>
+      <c r="E29" s="29" t="inlineStr"/>
+      <c r="F29" s="29" t="inlineStr"/>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
+      <c r="B30" s="28" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C30" s="29" t="inlineStr"/>
+      <c r="D30" s="29" t="inlineStr"/>
+      <c r="E30" s="29" t="inlineStr"/>
+      <c r="F30" s="29" t="inlineStr"/>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
+      <c r="B31" s="28" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C31" s="29" t="inlineStr"/>
+      <c r="D31" s="29" t="inlineStr"/>
+      <c r="E31" s="29" t="inlineStr"/>
+      <c r="F31" s="29" t="inlineStr"/>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+      <c r="B32" s="28" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C32" s="29" t="inlineStr"/>
+      <c r="D32" s="29" t="inlineStr"/>
+      <c r="E32" s="29" t="inlineStr"/>
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="B33" s="28" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C33" s="29" t="inlineStr"/>
+      <c r="D33" s="29" t="inlineStr"/>
+      <c r="E33" s="29" t="inlineStr"/>
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="B34" s="28" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C34" s="29" t="inlineStr"/>
+      <c r="D34" s="29" t="inlineStr"/>
+      <c r="E34" s="29" t="inlineStr"/>
+      <c r="F34" s="29" t="inlineStr"/>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35" s="28" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="29" t="inlineStr"/>
+      <c r="D35" s="29" t="inlineStr"/>
+      <c r="E35" s="29" t="inlineStr"/>
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="B36" s="28" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C36" s="29" t="inlineStr"/>
+      <c r="D36" s="29" t="inlineStr"/>
+      <c r="E36" s="29" t="inlineStr"/>
+      <c r="F36" s="29" t="inlineStr"/>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
+      <c r="B37" s="28" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C37" s="29" t="inlineStr"/>
+      <c r="D37" s="29" t="inlineStr"/>
+      <c r="E37" s="29" t="inlineStr"/>
+      <c r="F37" s="29" t="inlineStr"/>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+      <c r="B38" s="28" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C38" s="29" t="inlineStr"/>
+      <c r="D38" s="29" t="inlineStr"/>
+      <c r="E38" s="29" t="inlineStr"/>
+      <c r="F38" s="29" t="inlineStr"/>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+      <c r="B39" s="28" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C39" s="29" t="inlineStr"/>
+      <c r="D39" s="29" t="inlineStr"/>
+      <c r="E39" s="29" t="inlineStr"/>
+      <c r="F39" s="29" t="inlineStr"/>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+      <c r="B40" s="28" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C40" s="29" t="inlineStr"/>
+      <c r="D40" s="29" t="inlineStr"/>
+      <c r="E40" s="29" t="inlineStr"/>
+      <c r="F40" s="29" t="inlineStr"/>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="B41" s="28" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C41" s="29" t="inlineStr"/>
+      <c r="D41" s="29" t="inlineStr"/>
+      <c r="E41" s="29" t="inlineStr"/>
+      <c r="F41" s="29" t="inlineStr"/>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+      <c r="B42" s="28" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C42" s="29" t="inlineStr"/>
+      <c r="D42" s="29" t="inlineStr"/>
+      <c r="E42" s="29" t="inlineStr"/>
+      <c r="F42" s="29" t="inlineStr"/>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="B43" s="28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C43" s="29" t="inlineStr"/>
+      <c r="D43" s="29" t="inlineStr"/>
+      <c r="E43" s="29" t="inlineStr"/>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -12012,7 +11465,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12091,10 +11544,10 @@
         <v>183400</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>7198482</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>39.2502</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>7198482</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3633.43</v>
@@ -12113,10 +11566,10 @@
         <v>174771</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6122744</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>35.033</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6122744</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -12133,10 +11586,10 @@
         <v>169327</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6717424</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>39.6713</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6717424</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>22.53</v>
@@ -12155,10 +11608,10 @@
         <v>160630</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6023390.25</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>37.4986</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6023390.25</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -12175,10 +11628,10 @@
         <v>183347</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6583477</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>35.9072</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6583477</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.14</v>
@@ -12197,10 +11650,10 @@
         <v>161583</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6505635</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>40.2619</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6505635</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -12217,10 +11670,10 @@
         <v>158057</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6282105</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>39.7458</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6282105</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.08</v>
@@ -12239,10 +11692,10 @@
         <v>180337</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6529675.94</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>36.2082</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6529675.94</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -12259,10 +11712,10 @@
         <v>185489</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>7194431.31</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>38.7864</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>7194431.31</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -12279,10 +11732,10 @@
         <v>182158</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6756253.56</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>37.0901</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6756253.56</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -12299,10 +11752,10 @@
         <v>188658</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5995527</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>31.7799</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5995527</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4791</v>
@@ -12321,10 +11774,10 @@
         <v>210894</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7012244.5</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>33.2501</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7012244.5</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>8498</v>
@@ -12343,10 +11796,10 @@
         <v>191973</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>7427776</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>38.6918</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>7427776</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>19</v>
@@ -12365,10 +11818,10 @@
         <v>215647</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>7931060</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>36.778</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>7931060</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -12387,10 +11840,10 @@
         <v>216115</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>7637324</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>35.3392</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>7637324</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>156</v>
@@ -12409,10 +11862,10 @@
         <v>215521</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6701145</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>31.0928</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6701145</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>108</v>
@@ -12431,10 +11884,10 @@
         <v>197410</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6002302</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>30.4053</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6002302</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12453,10 +11906,10 @@
         <v>209350</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6127060</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>29.2671</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6127060</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -12475,10 +11928,10 @@
         <v>221085</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6118424</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>27.6745</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6118424</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12497,10 +11950,10 @@
         <v>226520</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6132276</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>27.0717</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6132276</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12519,10 +11972,10 @@
         <v>233813</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>6453806</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>27.6024</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>6453806</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12541,10 +11994,10 @@
         <v>229622</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5611438</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>24.4377</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5611438</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12563,10 +12016,10 @@
         <v>228985</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6077040</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>26.539</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6077040</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12585,10 +12038,10 @@
         <v>252571</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>5453220</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21.5908</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>5453220</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0.1</v>
@@ -12607,10 +12060,10 @@
         <v>193601</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6392022</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>33.0165</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6392022</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12627,10 +12080,10 @@
         <v>206931</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5463442</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>26.4022</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5463442</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12647,10 +12100,10 @@
         <v>248350</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5750261</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>23.1539</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>5750261</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12667,10 +12120,10 @@
         <v>236090</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5422835</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>22.9694</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5422835</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12687,10 +12140,10 @@
         <v>227910</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5403304</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>23.7081</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5403304</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -12707,10 +12160,10 @@
         <v>221270</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5085915</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>22.9851</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5085915</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12727,10 +12180,10 @@
         <v>203590</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4422010</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>21.7202</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>4422010</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12747,10 +12200,10 @@
         <v>184920</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3994641</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>21.602</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3994641</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -12767,10 +12220,10 @@
         <v>132130</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2816137</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>21.3134</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2816137</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -12787,10 +12240,10 @@
         <v>143230</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3054566</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>21.3263</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3054566</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -12807,10 +12260,10 @@
         <v>130650</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2576220</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>19.7185</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2576220</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -12827,10 +12280,10 @@
         <v>127230</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2576096</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>20.2476</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2576096</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -12847,10 +12300,10 @@
         <v>119500</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2386503</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>19.9707</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2386503</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -12867,10 +12320,10 @@
         <v>111827</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2316437</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>20.7145</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2316437</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -12887,10 +12340,10 @@
         <v>65188</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1969559</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>30.2135</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1969559</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -12907,10 +12360,10 @@
         <v>60646</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1677571</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>27.6617</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1677571</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -12927,10 +12380,10 @@
         <v>59306</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1642073</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>27.6881</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1642073</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -12947,10 +12400,10 @@
         <v>65009</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1998749</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>30.7457</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1998749</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -12967,10 +12420,10 @@
         <v>63999</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2009850</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>31.4044</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2009850</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -12987,10 +12440,10 @@
         <v>70494</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2269479</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>32.1939</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2269479</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -13007,10 +12460,10 @@
         <v>67547</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2031559</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>30.0762</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2031559</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -13027,10 +12480,10 @@
         <v>76864</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2152192</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>28</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2152192</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -13047,10 +12500,10 @@
         <v>100540</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2450690</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>24.3753</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2450690</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -13067,10 +12520,10 @@
         <v>107300</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2570925</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>23.9602</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2570925</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -13087,10 +12540,10 @@
         <v>109860</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2544327</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>23.1597</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2544327</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -13107,10 +12560,10 @@
         <v>151779</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2676411</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>17.6336</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2676411</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -13127,10 +12580,10 @@
         <v>161907</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2495927</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>15.4158</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2495927</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -13147,10 +12600,10 @@
         <v>170740</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2581639</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>15.1203</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2581639</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -13167,10 +12620,10 @@
         <v>181050</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2742948</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>15.1502</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2742948</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -13187,10 +12640,10 @@
         <v>193560</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2911342</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>15.041</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2911342</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -13207,10 +12660,10 @@
         <v>190170</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>3031113</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>15.939</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>3031113</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -13227,10 +12680,10 @@
         <v>195095</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2765117</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>14.1732</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2765117</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -13247,10 +12700,10 @@
         <v>202716</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2556828</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.6129</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2556828</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -13266,10 +12719,10 @@
         <v>186688</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2522089</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>13.5096</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2522089</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -13285,10 +12738,10 @@
         <v>210000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3304000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>15.7333</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3304000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -13304,10 +12757,10 @@
         <v>169000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>19.5266</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3300000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -13323,10 +12776,10 @@
         <v>122000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2473000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>20.2705</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2473000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -13342,10 +12795,10 @@
         <v>111000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2486000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>22.3964</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2486000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -13361,10 +12814,10 @@
         <v>114000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2597000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>22.7807</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2597000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
